--- a/tables/ZG_PhenT_allScaled.xlsx
+++ b/tables/ZG_PhenT_allScaled.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t xml:space="preserve">Parameter</t>
   </si>
@@ -41,34 +41,34 @@
     <t xml:space="preserve">0.065</t>
   </si>
   <si>
-    <t xml:space="preserve">0.481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.6307</t>
+    <t xml:space="preserve">0.479</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.6317</t>
   </si>
   <si>
     <t xml:space="preserve">Diet_HCOherbivore</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.011</t>
+    <t xml:space="preserve"> 0.012</t>
   </si>
   <si>
     <t xml:space="preserve">0.097</t>
   </si>
   <si>
-    <t xml:space="preserve">2.973</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.2262</t>
+    <t xml:space="preserve">3.297</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.1923</t>
   </si>
   <si>
     <t xml:space="preserve">Diet_HCOomnivore</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.079</t>
+    <t xml:space="preserve">-0.124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.077</t>
   </si>
   <si>
     <t xml:space="preserve">Migratmigrant</t>
@@ -77,13 +77,13 @@
     <t xml:space="preserve"> 0.060</t>
   </si>
   <si>
-    <t xml:space="preserve">0.064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.879</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3484</t>
+    <t xml:space="preserve">0.063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.927</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3357</t>
   </si>
   <si>
     <t xml:space="preserve">GenLength_y_IUCN.y</t>
@@ -95,10 +95,10 @@
     <t xml:space="preserve">0.006</t>
   </si>
   <si>
-    <t xml:space="preserve">0.945</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.3310</t>
+    <t xml:space="preserve">0.989</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.3200</t>
   </si>
   <si>
     <t xml:space="preserve">abs_lat</t>
@@ -110,22 +110,10 @@
     <t xml:space="preserve">0.003</t>
   </si>
   <si>
-    <t xml:space="preserve">0.7999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pvalue</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.9437</t>
+    <t xml:space="preserve">0.073</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.7873</t>
   </si>
 </sst>
 </file>
@@ -655,13 +643,13 @@
         <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="4"/>
@@ -669,31 +657,6 @@
       <c r="J7" s="2"/>
       <c r="K7" s="6"/>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
